--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H2">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I2">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J2">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.272507792271</v>
+        <v>17.82379233333333</v>
       </c>
       <c r="N2">
-        <v>17.272507792271</v>
+        <v>53.471377</v>
       </c>
       <c r="O2">
-        <v>0.4222808857170381</v>
+        <v>0.4233776263711466</v>
       </c>
       <c r="P2">
-        <v>0.4222808857170381</v>
+        <v>0.4233776263711467</v>
       </c>
       <c r="Q2">
-        <v>631.9412872849379</v>
+        <v>660.4755671909061</v>
       </c>
       <c r="R2">
-        <v>631.9412872849379</v>
+        <v>5944.280104718156</v>
       </c>
       <c r="S2">
-        <v>0.004104806705213077</v>
+        <v>0.003569550163587486</v>
       </c>
       <c r="T2">
-        <v>0.004104806705213077</v>
+        <v>0.003569550163587486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H3">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I3">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J3">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.2989759117674</v>
+        <v>10.453073</v>
       </c>
       <c r="N3">
-        <v>10.2989759117674</v>
+        <v>31.359219</v>
       </c>
       <c r="O3">
-        <v>0.2517909224476176</v>
+        <v>0.2482971722436279</v>
       </c>
       <c r="P3">
-        <v>0.2517909224476176</v>
+        <v>0.2482971722436279</v>
       </c>
       <c r="Q3">
-        <v>376.8038882177361</v>
+        <v>387.3473831745317</v>
       </c>
       <c r="R3">
-        <v>376.8038882177361</v>
+        <v>3486.126448570785</v>
       </c>
       <c r="S3">
-        <v>0.002447548780285854</v>
+        <v>0.002093424773994988</v>
       </c>
       <c r="T3">
-        <v>0.002447548780285854</v>
+        <v>0.002093424773994988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H4">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I4">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J4">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.1798745449214</v>
+        <v>4.27602</v>
       </c>
       <c r="N4">
-        <v>4.1798745449214</v>
+        <v>12.82806</v>
       </c>
       <c r="O4">
-        <v>0.1021902057444918</v>
+        <v>0.1015704830969034</v>
       </c>
       <c r="P4">
-        <v>0.1021902057444918</v>
+        <v>0.1015704830969034</v>
       </c>
       <c r="Q4">
-        <v>152.9271448231245</v>
+        <v>158.4515058301</v>
       </c>
       <c r="R4">
-        <v>152.9271448231245</v>
+        <v>1426.0635524709</v>
       </c>
       <c r="S4">
-        <v>0.0009933460308884849</v>
+        <v>0.0008563535528832572</v>
       </c>
       <c r="T4">
-        <v>0.0009933460308884849</v>
+        <v>0.0008563535528832573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H5">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I5">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J5">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.27069171093601</v>
+        <v>6.530620666666667</v>
       </c>
       <c r="N5">
-        <v>6.27069171093601</v>
+        <v>19.591862</v>
       </c>
       <c r="O5">
-        <v>0.1533068203875673</v>
+        <v>0.1551251621919343</v>
       </c>
       <c r="P5">
-        <v>0.1533068203875673</v>
+        <v>0.1551251621919343</v>
       </c>
       <c r="Q5">
-        <v>229.4229094948853</v>
+        <v>241.9976236403256</v>
       </c>
       <c r="R5">
-        <v>229.4229094948853</v>
+        <v>2177.97861276293</v>
       </c>
       <c r="S5">
-        <v>0.001490228152792738</v>
+        <v>0.001307879806556757</v>
       </c>
       <c r="T5">
-        <v>0.001490228152792738</v>
+        <v>0.001307879806556757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H6">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I6">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J6">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.88083808568094</v>
+        <v>3.015535666666667</v>
       </c>
       <c r="N6">
-        <v>2.88083808568094</v>
+        <v>9.046607</v>
       </c>
       <c r="O6">
-        <v>0.07043116570328521</v>
+        <v>0.07162955609638778</v>
       </c>
       <c r="P6">
-        <v>0.07043116570328521</v>
+        <v>0.07162955609638778</v>
       </c>
       <c r="Q6">
-        <v>105.3998961945367</v>
+        <v>111.7432021524006</v>
       </c>
       <c r="R6">
-        <v>105.3998961945367</v>
+        <v>1005.688819371605</v>
       </c>
       <c r="S6">
-        <v>0.0006846303752155686</v>
+        <v>0.0006039178212440965</v>
       </c>
       <c r="T6">
-        <v>0.0006846303752155686</v>
+        <v>0.0006039178212440965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H7">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I7">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J7">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.272507792271</v>
+        <v>17.82379233333333</v>
       </c>
       <c r="N7">
-        <v>17.272507792271</v>
+        <v>53.471377</v>
       </c>
       <c r="O7">
-        <v>0.4222808857170381</v>
+        <v>0.4233776263711466</v>
       </c>
       <c r="P7">
-        <v>0.4222808857170381</v>
+        <v>0.4233776263711467</v>
       </c>
       <c r="Q7">
-        <v>837.6965689838718</v>
+        <v>907.2160993699554</v>
       </c>
       <c r="R7">
-        <v>837.6965689838718</v>
+        <v>8164.944894329599</v>
       </c>
       <c r="S7">
-        <v>0.005441300580426475</v>
+        <v>0.004903063090870098</v>
       </c>
       <c r="T7">
-        <v>0.005441300580426475</v>
+        <v>0.004903063090870099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H8">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I8">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J8">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.2989759117674</v>
+        <v>10.453073</v>
       </c>
       <c r="N8">
-        <v>10.2989759117674</v>
+        <v>31.359219</v>
       </c>
       <c r="O8">
-        <v>0.2517909224476176</v>
+        <v>0.2482971722436279</v>
       </c>
       <c r="P8">
-        <v>0.2517909224476176</v>
+        <v>0.2482971722436279</v>
       </c>
       <c r="Q8">
-        <v>499.4883712946211</v>
+        <v>532.0526595091836</v>
       </c>
       <c r="R8">
-        <v>499.4883712946211</v>
+        <v>4788.473935582653</v>
       </c>
       <c r="S8">
-        <v>0.003244452066860528</v>
+        <v>0.002875486622261707</v>
       </c>
       <c r="T8">
-        <v>0.003244452066860528</v>
+        <v>0.002875486622261707</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H9">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I9">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J9">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.1798745449214</v>
+        <v>4.27602</v>
       </c>
       <c r="N9">
-        <v>4.1798745449214</v>
+        <v>12.82806</v>
       </c>
       <c r="O9">
-        <v>0.1021902057444918</v>
+        <v>0.1015704830969034</v>
       </c>
       <c r="P9">
-        <v>0.1021902057444918</v>
+        <v>0.1015704830969034</v>
       </c>
       <c r="Q9">
-        <v>202.7190612489111</v>
+        <v>217.64583612058</v>
       </c>
       <c r="R9">
-        <v>202.7190612489111</v>
+        <v>1958.81252508522</v>
       </c>
       <c r="S9">
-        <v>0.001316771951179434</v>
+        <v>0.001176270203654323</v>
       </c>
       <c r="T9">
-        <v>0.001316771951179434</v>
+        <v>0.001176270203654323</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H10">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I10">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J10">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.27069171093601</v>
+        <v>6.530620666666667</v>
       </c>
       <c r="N10">
-        <v>6.27069171093601</v>
+        <v>19.591862</v>
       </c>
       <c r="O10">
-        <v>0.1533068203875673</v>
+        <v>0.1551251621919343</v>
       </c>
       <c r="P10">
-        <v>0.1533068203875673</v>
+        <v>0.1551251621919343</v>
       </c>
       <c r="Q10">
-        <v>304.1212656888916</v>
+        <v>332.4031214500882</v>
       </c>
       <c r="R10">
-        <v>304.1212656888916</v>
+        <v>2991.628093050794</v>
       </c>
       <c r="S10">
-        <v>0.001975435116703767</v>
+        <v>0.001796477682884816</v>
       </c>
       <c r="T10">
-        <v>0.001975435116703767</v>
+        <v>0.001796477682884815</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H11">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I11">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J11">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.88083808568094</v>
+        <v>3.015535666666667</v>
       </c>
       <c r="N11">
-        <v>2.88083808568094</v>
+        <v>9.046607</v>
       </c>
       <c r="O11">
-        <v>0.07043116570328521</v>
+        <v>0.07162955609638778</v>
       </c>
       <c r="P11">
-        <v>0.07043116570328521</v>
+        <v>0.07162955609638778</v>
       </c>
       <c r="Q11">
-        <v>139.7173015752156</v>
+        <v>153.4882394196232</v>
       </c>
       <c r="R11">
-        <v>139.7173015752156</v>
+        <v>1381.394154776609</v>
       </c>
       <c r="S11">
-        <v>0.0009075408236170995</v>
+        <v>0.0008295295047162721</v>
       </c>
       <c r="T11">
-        <v>0.0009075408236170995</v>
+        <v>0.0008295295047162721</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H12">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I12">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J12">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.272507792271</v>
+        <v>17.82379233333333</v>
       </c>
       <c r="N12">
-        <v>17.272507792271</v>
+        <v>53.471377</v>
       </c>
       <c r="O12">
-        <v>0.4222808857170381</v>
+        <v>0.4233776263711466</v>
       </c>
       <c r="P12">
-        <v>0.4222808857170381</v>
+        <v>0.4233776263711467</v>
       </c>
       <c r="Q12">
-        <v>34627.06113667708</v>
+        <v>35780.30577545665</v>
       </c>
       <c r="R12">
-        <v>34627.06113667708</v>
+        <v>322022.7519791099</v>
       </c>
       <c r="S12">
-        <v>0.224921833080937</v>
+        <v>0.1933752021701585</v>
       </c>
       <c r="T12">
-        <v>0.224921833080937</v>
+        <v>0.1933752021701585</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H13">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I13">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J13">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.2989759117674</v>
+        <v>10.453073</v>
       </c>
       <c r="N13">
-        <v>10.2989759117674</v>
+        <v>31.359219</v>
       </c>
       <c r="O13">
-        <v>0.2517909224476176</v>
+        <v>0.2482971722436279</v>
       </c>
       <c r="P13">
-        <v>0.2517909224476176</v>
+        <v>0.2482971722436279</v>
       </c>
       <c r="Q13">
-        <v>20646.87263892936</v>
+        <v>20983.9826024961</v>
       </c>
       <c r="R13">
-        <v>20646.87263892936</v>
+        <v>188855.8434224649</v>
       </c>
       <c r="S13">
-        <v>0.134112809140992</v>
+        <v>0.1134082504369258</v>
       </c>
       <c r="T13">
-        <v>0.134112809140992</v>
+        <v>0.1134082504369258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H14">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I14">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J14">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.1798745449214</v>
+        <v>4.27602</v>
       </c>
       <c r="N14">
-        <v>4.1798745449214</v>
+        <v>12.82806</v>
       </c>
       <c r="O14">
-        <v>0.1021902057444918</v>
+        <v>0.1015704830969034</v>
       </c>
       <c r="P14">
-        <v>0.1021902057444918</v>
+        <v>0.1015704830969034</v>
       </c>
       <c r="Q14">
-        <v>8379.603769835876</v>
+        <v>8583.880480689781</v>
       </c>
       <c r="R14">
-        <v>8379.603769835876</v>
+        <v>77254.92432620803</v>
       </c>
       <c r="S14">
-        <v>0.05443014158677985</v>
+        <v>0.04639171151232786</v>
       </c>
       <c r="T14">
-        <v>0.05443014158677985</v>
+        <v>0.04639171151232787</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H15">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I15">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J15">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.27069171093601</v>
+        <v>6.530620666666667</v>
       </c>
       <c r="N15">
-        <v>6.27069171093601</v>
+        <v>19.591862</v>
       </c>
       <c r="O15">
-        <v>0.1533068203875673</v>
+        <v>0.1551251621919343</v>
       </c>
       <c r="P15">
-        <v>0.1533068203875673</v>
+        <v>0.1551251621919343</v>
       </c>
       <c r="Q15">
-        <v>12571.16962141409</v>
+        <v>13109.87022216671</v>
       </c>
       <c r="R15">
-        <v>12571.16962141409</v>
+        <v>117988.8319995004</v>
       </c>
       <c r="S15">
-        <v>0.08165667031514028</v>
+        <v>0.070852491327086</v>
       </c>
       <c r="T15">
-        <v>0.08165667031514028</v>
+        <v>0.07085249132708599</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H16">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I16">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J16">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.88083808568094</v>
+        <v>3.015535666666667</v>
       </c>
       <c r="N16">
-        <v>2.88083808568094</v>
+        <v>9.046607</v>
       </c>
       <c r="O16">
-        <v>0.07043116570328521</v>
+        <v>0.07162955609638778</v>
       </c>
       <c r="P16">
-        <v>0.07043116570328521</v>
+        <v>0.07162955609638778</v>
       </c>
       <c r="Q16">
-        <v>5775.360342426908</v>
+        <v>6053.525883397141</v>
       </c>
       <c r="R16">
-        <v>5775.360342426908</v>
+        <v>54481.73295057427</v>
       </c>
       <c r="S16">
-        <v>0.03751414622783851</v>
+        <v>0.03271637193070549</v>
       </c>
       <c r="T16">
-        <v>0.03751414622783851</v>
+        <v>0.03271637193070549</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H17">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I17">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J17">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.272507792271</v>
+        <v>17.82379233333333</v>
       </c>
       <c r="N17">
-        <v>17.272507792271</v>
+        <v>53.471377</v>
       </c>
       <c r="O17">
-        <v>0.4222808857170381</v>
+        <v>0.4233776263711466</v>
       </c>
       <c r="P17">
-        <v>0.4222808857170381</v>
+        <v>0.4233776263711467</v>
       </c>
       <c r="Q17">
-        <v>28813.99943117404</v>
+        <v>40874.82787673122</v>
       </c>
       <c r="R17">
-        <v>28813.99943117404</v>
+        <v>367873.450890581</v>
       </c>
       <c r="S17">
-        <v>0.1871627957357362</v>
+        <v>0.2209086236975416</v>
       </c>
       <c r="T17">
-        <v>0.1871627957357362</v>
+        <v>0.2209086236975417</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H18">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I18">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J18">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.2989759117674</v>
+        <v>10.453073</v>
       </c>
       <c r="N18">
-        <v>10.2989759117674</v>
+        <v>31.359219</v>
       </c>
       <c r="O18">
-        <v>0.2517909224476176</v>
+        <v>0.2482971722436279</v>
       </c>
       <c r="P18">
-        <v>0.2517909224476176</v>
+        <v>0.2482971722436279</v>
       </c>
       <c r="Q18">
-        <v>17180.75276805671</v>
+        <v>23971.7536912079</v>
       </c>
       <c r="R18">
-        <v>17180.75276805671</v>
+        <v>215745.7832208711</v>
       </c>
       <c r="S18">
-        <v>0.1115984515997112</v>
+        <v>0.1295557043447712</v>
       </c>
       <c r="T18">
-        <v>0.1115984515997112</v>
+        <v>0.1295557043447712</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H19">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I19">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J19">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.1798745449214</v>
+        <v>4.27602</v>
       </c>
       <c r="N19">
-        <v>4.1798745449214</v>
+        <v>12.82806</v>
       </c>
       <c r="O19">
-        <v>0.1021902057444918</v>
+        <v>0.1015704830969034</v>
       </c>
       <c r="P19">
-        <v>0.1021902057444918</v>
+        <v>0.1015704830969034</v>
       </c>
       <c r="Q19">
-        <v>6972.867183399817</v>
+        <v>9806.082691537582</v>
       </c>
       <c r="R19">
-        <v>6972.867183399817</v>
+        <v>88254.74422383824</v>
       </c>
       <c r="S19">
-        <v>0.04529261269184048</v>
+        <v>0.05299712179301996</v>
       </c>
       <c r="T19">
-        <v>0.04529261269184048</v>
+        <v>0.05299712179301996</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H20">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I20">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J20">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.27069171093601</v>
+        <v>6.530620666666667</v>
       </c>
       <c r="N20">
-        <v>6.27069171093601</v>
+        <v>19.591862</v>
       </c>
       <c r="O20">
-        <v>0.1533068203875673</v>
+        <v>0.1551251621919343</v>
       </c>
       <c r="P20">
-        <v>0.1533068203875673</v>
+        <v>0.1551251621919343</v>
       </c>
       <c r="Q20">
-        <v>10460.76861362478</v>
+        <v>14976.49830552655</v>
       </c>
       <c r="R20">
-        <v>10460.76861362478</v>
+        <v>134788.4847497389</v>
       </c>
       <c r="S20">
-        <v>0.06794845345739915</v>
+        <v>0.08094071095442644</v>
       </c>
       <c r="T20">
-        <v>0.06794845345739915</v>
+        <v>0.08094071095442643</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H21">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I21">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J21">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.88083808568094</v>
+        <v>3.015535666666667</v>
       </c>
       <c r="N21">
-        <v>2.88083808568094</v>
+        <v>9.046607</v>
       </c>
       <c r="O21">
-        <v>0.07043116570328521</v>
+        <v>0.07162955609638778</v>
       </c>
       <c r="P21">
-        <v>0.07043116570328521</v>
+        <v>0.07162955609638778</v>
       </c>
       <c r="Q21">
-        <v>4805.814416784299</v>
+        <v>6915.44756727383</v>
       </c>
       <c r="R21">
-        <v>4805.814416784299</v>
+        <v>62239.02810546446</v>
       </c>
       <c r="S21">
-        <v>0.03121641145933091</v>
+        <v>0.03737464066995219</v>
       </c>
       <c r="T21">
-        <v>0.03121641145933091</v>
+        <v>0.03737464066995219</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H22">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I22">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J22">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.272507792271</v>
+        <v>17.82379233333333</v>
       </c>
       <c r="N22">
-        <v>17.272507792271</v>
+        <v>53.471377</v>
       </c>
       <c r="O22">
-        <v>0.4222808857170381</v>
+        <v>0.4233776263711466</v>
       </c>
       <c r="P22">
-        <v>0.4222808857170381</v>
+        <v>0.4233776263711467</v>
       </c>
       <c r="Q22">
-        <v>100.0915302383465</v>
+        <v>114.9385725946385</v>
       </c>
       <c r="R22">
-        <v>100.0915302383465</v>
+        <v>1034.447153351747</v>
       </c>
       <c r="S22">
-        <v>0.0006501496147254416</v>
+        <v>0.0006211872489889028</v>
       </c>
       <c r="T22">
-        <v>0.0006501496147254416</v>
+        <v>0.0006211872489889028</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H23">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I23">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J23">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.2989759117674</v>
+        <v>10.453073</v>
       </c>
       <c r="N23">
-        <v>10.2989759117674</v>
+        <v>31.359219</v>
       </c>
       <c r="O23">
-        <v>0.2517909224476176</v>
+        <v>0.2482971722436279</v>
       </c>
       <c r="P23">
-        <v>0.2517909224476176</v>
+        <v>0.2482971722436279</v>
       </c>
       <c r="Q23">
-        <v>59.68098386720327</v>
+        <v>67.40772487573433</v>
       </c>
       <c r="R23">
-        <v>59.68098386720327</v>
+        <v>606.6695238816089</v>
       </c>
       <c r="S23">
-        <v>0.0003876608597680535</v>
+        <v>0.0003643060656741742</v>
       </c>
       <c r="T23">
-        <v>0.0003876608597680535</v>
+        <v>0.0003643060656741742</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H24">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I24">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J24">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.1798745449214</v>
+        <v>4.27602</v>
       </c>
       <c r="N24">
-        <v>4.1798745449214</v>
+        <v>12.82806</v>
       </c>
       <c r="O24">
-        <v>0.1021902057444918</v>
+        <v>0.1015704830969034</v>
       </c>
       <c r="P24">
-        <v>0.1021902057444918</v>
+        <v>0.1015704830969034</v>
       </c>
       <c r="Q24">
-        <v>24.2217311138053</v>
+        <v>27.57435825074</v>
       </c>
       <c r="R24">
-        <v>24.2217311138053</v>
+        <v>248.16922425666</v>
       </c>
       <c r="S24">
-        <v>0.0001573334838035135</v>
+        <v>0.0001490260350180356</v>
       </c>
       <c r="T24">
-        <v>0.0001573334838035135</v>
+        <v>0.0001490260350180356</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H25">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I25">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J25">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.27069171093601</v>
+        <v>6.530620666666667</v>
       </c>
       <c r="N25">
-        <v>6.27069171093601</v>
+        <v>19.591862</v>
       </c>
       <c r="O25">
-        <v>0.1533068203875673</v>
+        <v>0.1551251621919343</v>
       </c>
       <c r="P25">
-        <v>0.1533068203875673</v>
+        <v>0.1551251621919343</v>
       </c>
       <c r="Q25">
-        <v>36.33769551873377</v>
+        <v>42.11338437667577</v>
       </c>
       <c r="R25">
-        <v>36.33769551873377</v>
+        <v>379.020459390082</v>
       </c>
       <c r="S25">
-        <v>0.0002360333455314097</v>
+        <v>0.000227602420980298</v>
       </c>
       <c r="T25">
-        <v>0.0002360333455314097</v>
+        <v>0.0002276024209802979</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H26">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I26">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J26">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.88083808568094</v>
+        <v>3.015535666666667</v>
       </c>
       <c r="N26">
-        <v>2.88083808568094</v>
+        <v>9.046607</v>
       </c>
       <c r="O26">
-        <v>0.07043116570328521</v>
+        <v>0.07162955609638778</v>
       </c>
       <c r="P26">
-        <v>0.07043116570328521</v>
+        <v>0.07162955609638778</v>
       </c>
       <c r="Q26">
-        <v>16.69401431642381</v>
+        <v>19.44599435703078</v>
       </c>
       <c r="R26">
-        <v>16.69401431642381</v>
+        <v>175.013949213277</v>
       </c>
       <c r="S26">
-        <v>0.0001084368172831249</v>
+        <v>0.0001050961697697396</v>
       </c>
       <c r="T26">
-        <v>0.0001084368172831249</v>
+        <v>0.0001050961697697396</v>
       </c>
     </row>
   </sheetData>
